--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Habitat-trans_camb.xlsx
@@ -618,7 +618,7 @@
         <v>1.010167804775214</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.447217154903776</v>
+        <v>7.447217154903779</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3151530092978763</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.425558858662449</v>
+        <v>-2.295205299014742</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.95288345986315</v>
+        <v>3.104413066883285</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.430296985225531</v>
+        <v>-2.034869020329956</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.398260791914103</v>
+        <v>4.148636777211035</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.461545820476865</v>
+        <v>-1.466660019410912</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.442952558902573</v>
+        <v>4.532550007263635</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.421905565925553</v>
+        <v>1.406813289579167</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.764400193735438</v>
+        <v>7.964491786846908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.081902964825114</v>
+        <v>4.489303807897769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.41145052549682</v>
+        <v>10.36576638643928</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.368350670975265</v>
+        <v>2.298246402160777</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.394076945241951</v>
+        <v>8.275054816063408</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>0.1106439350177431</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.8156955775615439</v>
+        <v>0.8156955775615442</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04929838525661023</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4989399656569442</v>
+        <v>-0.4832350283063637</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5555161153346581</v>
+        <v>0.6009931728106506</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2226572473338112</v>
+        <v>-0.1916488002674238</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3793568565904354</v>
+        <v>0.3604204635383104</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2023578168372117</v>
+        <v>-0.2030127248897892</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5916582673671071</v>
+        <v>0.5905777991202273</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5526368876080894</v>
+        <v>0.5394343887628174</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.884102023138012</v>
+        <v>2.832002412076421</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5376335617990333</v>
+        <v>0.6155077996115975</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.433526036252039</v>
+        <v>1.425829465215864</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4226165934364575</v>
+        <v>0.4250206849646918</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.554913104251078</v>
+        <v>1.506970359969625</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-0.4821560471599102</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.279056507865704</v>
+        <v>4.279056507865702</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.957666107076829</v>
+        <v>-1.891780318564359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.330375629142959</v>
+        <v>1.389412675499644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.117646854118242</v>
+        <v>-3.122090476570598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.764615216389754</v>
+        <v>2.854470232593795</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.946404657422422</v>
+        <v>-1.941535566886878</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.75065011485036</v>
+        <v>2.670271970440819</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.085662376116874</v>
+        <v>1.080867208874371</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.798156459136722</v>
+        <v>4.920921783885756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.988113520081203</v>
+        <v>1.946700253821212</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.847196651420998</v>
+        <v>7.708512328282145</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.031247392397932</v>
+        <v>1.03889646724575</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.708877566644272</v>
+        <v>5.769474814186515</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.07946507274736482</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7052395976169474</v>
+        <v>0.7052395976169472</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4919923054634489</v>
+        <v>-0.4553988741466067</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2775027154569892</v>
+        <v>0.3049147275771663</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3140694643998115</v>
+        <v>-0.3152215335747491</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2693041560789419</v>
+        <v>0.2473031176031297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2905316800288981</v>
+        <v>-0.2821537148264299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3738888919896721</v>
+        <v>0.3775491396771513</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4045238712992232</v>
+        <v>0.4704895297972052</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.891899982836843</v>
+        <v>1.974200065949483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2776803494964651</v>
+        <v>0.2639281351690373</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.065591630107464</v>
+        <v>1.011366014574435</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1990819134818536</v>
+        <v>0.2087738058819835</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.046829116636203</v>
+        <v>1.093017571491619</v>
       </c>
     </row>
     <row r="16">
@@ -932,19 +932,19 @@
         <v>-0.9299465475321501</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2.623965683175019</v>
+        <v>2.623965683175018</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.6016567860216454</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.588644928894873</v>
+        <v>4.588644928894869</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.7544549834172055</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.595618078817917</v>
+        <v>3.595618078817919</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.976242859100466</v>
+        <v>-2.72743472599765</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5335986847068452</v>
+        <v>0.5123268269959067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.347738265666108</v>
+        <v>-3.635330212559829</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.567020850003605</v>
+        <v>1.589784454591539</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.619160559135396</v>
+        <v>-2.501755946142796</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.530846748830381</v>
+        <v>1.78057647004179</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.000369790869464</v>
+        <v>0.8991337731682456</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.732677302960123</v>
+        <v>4.918631692345707</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.295325680725888</v>
+        <v>2.174102423423992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.573522622346858</v>
+        <v>7.424789296381963</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9846017162270151</v>
+        <v>1.009603818176598</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.361879377583466</v>
+        <v>5.285541516498051</v>
       </c>
     </row>
     <row r="19">
@@ -1010,19 +1010,19 @@
         <v>-0.2509029374673942</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.7079554190177679</v>
+        <v>0.7079554190177676</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.07229861014444154</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.55139850245702</v>
+        <v>0.5513985024570197</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1248371894531406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5949551201497081</v>
+        <v>0.5949551201497085</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6125696116444808</v>
+        <v>-0.5812617672312184</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06655451197257144</v>
+        <v>0.06779591634184989</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.345949489985995</v>
+        <v>-0.3613817074598596</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1564285161869446</v>
+        <v>0.1700395519039804</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3732536645875965</v>
+        <v>-0.3509478551723201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2100986586957535</v>
+        <v>0.2442706565827794</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4310278267541568</v>
+        <v>0.3540477897669047</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.845688795548479</v>
+        <v>1.837219558744916</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3326337744934127</v>
+        <v>0.3101885138053183</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.131290763186271</v>
+        <v>1.089818138809243</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1994926671897305</v>
+        <v>0.1985048908996898</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.021902401736241</v>
+        <v>1.017926577791984</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-0.6751971017744163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5.788516575919601</v>
+        <v>5.788516575919599</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.4049155632115831</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.910394950255424</v>
+        <v>-1.807732785298915</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8950666049261133</v>
+        <v>1.126143186139073</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.473497570286095</v>
+        <v>-3.505453951455793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.341777817655342</v>
+        <v>3.189155112570881</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.092503420737185</v>
+        <v>-2.191331280184241</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.873645805293284</v>
+        <v>2.998268757501326</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.676401652147954</v>
+        <v>1.711868857210453</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.027636400328744</v>
+        <v>5.207252131433561</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.967000364399415</v>
+        <v>2.119251027887241</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.650804187814401</v>
+        <v>8.585155111319004</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.295025311387569</v>
+        <v>1.190692312876218</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.179650480230545</v>
+        <v>6.298719790377863</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.06383247314271577</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.5472406914921883</v>
+        <v>0.547240691492188</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.05558690411943334</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4419437744159506</v>
+        <v>-0.4201587384332637</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1713522884589264</v>
+        <v>0.1865772713077155</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2943672806099234</v>
+        <v>-0.2885508651934576</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2708353755587611</v>
+        <v>0.2529641244277354</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2593935576246378</v>
+        <v>-0.263285335211824</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3533911110204317</v>
+        <v>0.3615750205679691</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6225143195214063</v>
+        <v>0.6280558800222836</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.839863907848625</v>
+        <v>1.826777995671437</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2139293359929818</v>
+        <v>0.2345856858619332</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9738120891419629</v>
+        <v>0.9214934581916796</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1889262585347777</v>
+        <v>0.1882014639018134</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9825385243675179</v>
+        <v>0.9980335450436195</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-0.3688659130596232</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>4.643847315174317</v>
+        <v>4.643847315174315</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.296390495089203</v>
+        <v>-1.225938651628846</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.412628991799589</v>
+        <v>2.317902782021688</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.753648780223899</v>
+        <v>-1.743354312135889</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4.257177931454861</v>
+        <v>4.367377389953115</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.214752884611964</v>
+        <v>-1.18063617824961</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.769785132482854</v>
+        <v>3.720239704332843</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5102773687878961</v>
+        <v>0.4562741811379081</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.487978320050109</v>
+        <v>4.408130735548451</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.23634711315755</v>
+        <v>1.244297064324208</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.054800120474977</v>
+        <v>7.116621498010343</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5537068691799153</v>
+        <v>0.4617620500427426</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.572659466246365</v>
+        <v>5.494280095192516</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.0569605984003015</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7171069827458044</v>
+        <v>0.7171069827458042</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3174260499054395</v>
+        <v>-0.3154736685637693</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5867347316968243</v>
+        <v>0.5746161940301773</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1755549632402864</v>
+        <v>-0.1688089764442379</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4276765069490074</v>
+        <v>0.4341735247079389</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1784350091408502</v>
+        <v>-0.1736570097199781</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5433063326239919</v>
+        <v>0.5400513230892052</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1592210626660022</v>
+        <v>0.1453290537190819</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.465946836928513</v>
+        <v>1.421655261622582</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1421221812986893</v>
+        <v>0.143996464265059</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8234194977998724</v>
+        <v>0.8207751967302804</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.0969700618797497</v>
+        <v>0.0758071256785426</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9174869076258646</v>
+        <v>0.9223357199924861</v>
       </c>
     </row>
     <row r="34">
